--- a/database/files_pdf_excel/database_keys.xlsx
+++ b/database/files_pdf_excel/database_keys.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t xml:space="preserve">NOME_PESSOAL</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">TITULO_ELEITORAL_DO_CONJUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENDA_DO_CONJUGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROFISSAO_DO_CONJUGE</t>
   </si>
   <si>
     <t xml:space="preserve">ESCOLARIDADE_DO_CONJUGE</t>
@@ -699,39 +705,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CN1"/>
+  <dimension ref="A1:CP1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BR12" activeCellId="0" sqref="BR12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP6" activeCellId="0" sqref="AP6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="21.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="25.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="36.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="36.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="29.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="20.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="20.5"/>
@@ -745,55 +751,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="31.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="28.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="44.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="16.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="30.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="34.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="22.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="25.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="61" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="26.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="27.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="25.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="37.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="35.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="33.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="31.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="24.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="76" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="12.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="19.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="88" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="0" width="46.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="0" width="21.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="33.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="0" width="28.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="44.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="30.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="34.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="31.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="22.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="25.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="63" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="26.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="27.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="26.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="37.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="35.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="31.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="0" width="24.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="78" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="17.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="90" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="0" width="46.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="94" min="94" style="0" width="33.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,6 +1078,12 @@
       </c>
       <c r="CN1" s="0" t="s">
         <v>91</v>
+      </c>
+      <c r="CO1" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
